--- a/Excel/Goorin Brothers/16.03.2022 GOORIN BROTHERS — загрузка.xlsx
+++ b/Excel/Goorin Brothers/16.03.2022 GOORIN BROTHERS — загрузка.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFEC2812-AE65-4FED-B084-B91AE2A097F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB964D5A-D9CD-4791-8339-8C5080E8B31C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BDF38B29-D76C-412B-A337-56265B6D3CB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F54BD490-A0BE-4B92-8C72-D495109EEB5A}"/>
   </bookViews>
   <sheets>
     <sheet name="Загрузка" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
     <author>general</author>
   </authors>
   <commentList>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{211A620F-D2AF-4DB7-8074-A2DD284C1AE6}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{0098A52F-742F-4CFF-BA99-C7E37153A6E2}">
       <text>
         <r>
           <rPr>
@@ -2879,8 +2879,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2889,12 +2887,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -2917,6 +2909,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="9"/>
@@ -2998,25 +2996,25 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 8" xfId="1" xr:uid="{78761FCE-11DD-46E4-B06E-F6AF523EEB61}"/>
-    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{A8FDB4EB-A3DB-4D28-ADF2-C016D59F6CD8}"/>
+    <cellStyle name="Обычный 8" xfId="1" xr:uid="{A10A72D1-9C51-4585-AB64-32FDA97C3068}"/>
+    <cellStyle name="Финансовый 3" xfId="2" xr:uid="{2A34D149-B50D-4730-8AB1-268397D1507E}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -3390,14 +3388,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{541BFBCA-F502-4021-A3B7-2868DC56F5F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8403F31-3722-4385-8523-1896BBCFF97C}">
   <sheetPr codeName="Лист28">
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
   <dimension ref="A1:W170"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AR1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AC6" sqref="AC6:AH9"/>
     </sheetView>
   </sheetViews>
@@ -15124,7 +15122,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="V1:V1048576" xr:uid="{C98D4ACC-84B2-4D70-88C3-F2C5D34797F5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" sqref="V1:V1048576" xr:uid="{2AC0F72D-F2FF-47BA-B48F-65CC393FBB7E}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
